--- a/docs/n14-Documento-seguimiento-tiempos-y-tareas-v2015.xlsx
+++ b/docs/n14-Documento-seguimiento-tiempos-y-tareas-v2015.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15990" windowHeight="7560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte" sheetId="1" r:id="rId1"/>
     <sheet name="Ejemplo" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -232,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="74">
   <si>
     <t>Id Tarea</t>
   </si>
@@ -415,6 +416,45 @@
   </si>
   <si>
     <t>Hacer mockup interfaz</t>
+  </si>
+  <si>
+    <t>Requerimiento 1</t>
+  </si>
+  <si>
+    <t>Requerimiento 2</t>
+  </si>
+  <si>
+    <t>Requerimiento 3</t>
+  </si>
+  <si>
+    <t>Requerimiento 4</t>
+  </si>
+  <si>
+    <t>Requerimiento 5</t>
+  </si>
+  <si>
+    <t>Requerimiento 6</t>
+  </si>
+  <si>
+    <t>Requerimiento 7</t>
+  </si>
+  <si>
+    <t>Requerimiento 8</t>
+  </si>
+  <si>
+    <t>Interfaz gráfica</t>
+  </si>
+  <si>
+    <t>Conectar mundo e interfaz</t>
+  </si>
+  <si>
+    <t>Imlementar estructuras de datos</t>
+  </si>
+  <si>
+    <t>Diseñar pruebas estructuras</t>
+  </si>
+  <si>
+    <t>Implementar pruebas estructuras</t>
   </si>
 </sst>
 </file>
@@ -1136,6 +1176,33 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1163,18 +1230,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1196,55 +1251,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="33">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1589,71 +1629,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.1640625" customWidth="1"/>
-    <col min="3" max="10" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.125" customWidth="1"/>
+    <col min="3" max="10" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="32" customFormat="1" ht="47" customHeight="1" thickBot="1">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:10" s="32" customFormat="1" ht="47.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-    </row>
-    <row r="2" spans="1:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+    </row>
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="55" t="s">
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-    </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" ht="20" customHeight="1">
-      <c r="A3" s="64" t="s">
+      <c r="H2" s="65"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="51" t="s">
+      <c r="D3" s="61"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54"/>
-    </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="63"/>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
       <c r="C4" s="26" t="s">
         <v>16</v>
       </c>
@@ -1679,7 +1719,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>2</v>
       </c>
@@ -1689,17 +1729,21 @@
       <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5">
+        <v>0.5</v>
+      </c>
       <c r="E5" s="46"/>
       <c r="F5" s="6"/>
       <c r="G5" s="4">
         <v>1</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5">
+        <v>0.5</v>
+      </c>
       <c r="I5" s="46"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
         <v>3</v>
       </c>
@@ -1709,17 +1753,21 @@
       <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
       <c r="E6" s="46"/>
       <c r="F6" s="6"/>
       <c r="G6" s="4">
         <v>2</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5">
+        <v>0.7</v>
+      </c>
       <c r="I6" s="46"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>4</v>
       </c>
@@ -1729,17 +1777,21 @@
       <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
       <c r="E7" s="46"/>
       <c r="F7" s="6"/>
       <c r="G7" s="4">
         <v>0</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
       <c r="I7" s="46"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
         <v>5</v>
       </c>
@@ -1749,17 +1801,21 @@
       <c r="C8" s="4">
         <v>2</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5">
+        <v>2</v>
+      </c>
       <c r="E8" s="46"/>
       <c r="F8" s="6"/>
       <c r="G8" s="4">
         <v>0</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
       <c r="I8" s="46"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>6</v>
       </c>
@@ -1769,21 +1825,27 @@
       <c r="C9" s="4">
         <v>0</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
       <c r="E9" s="46"/>
       <c r="F9" s="6"/>
       <c r="G9" s="4">
         <v>1</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="5">
+        <v>2</v>
+      </c>
       <c r="I9" s="46"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="35" t="s">
+        <v>61</v>
+      </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="46"/>
@@ -1793,11 +1855,13 @@
       <c r="I10" s="46"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="35" t="s">
+        <v>62</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="46"/>
@@ -1807,11 +1871,13 @@
       <c r="I11" s="46"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="35" t="s">
+        <v>63</v>
+      </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="46"/>
@@ -1821,11 +1887,13 @@
       <c r="I12" s="46"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="35"/>
+      <c r="B13" s="35" t="s">
+        <v>64</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="E13" s="46"/>
@@ -1835,11 +1903,13 @@
       <c r="I13" s="46"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="35"/>
+      <c r="B14" s="35" t="s">
+        <v>65</v>
+      </c>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="46"/>
@@ -1849,11 +1919,13 @@
       <c r="I14" s="46"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="35"/>
+      <c r="B15" s="35" t="s">
+        <v>66</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="46"/>
@@ -1863,11 +1935,13 @@
       <c r="I15" s="46"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="35"/>
+      <c r="B16" s="35" t="s">
+        <v>67</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="46"/>
@@ -1877,11 +1951,13 @@
       <c r="I16" s="46"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="35"/>
+      <c r="B17" s="35" t="s">
+        <v>68</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="46"/>
@@ -1891,11 +1967,13 @@
       <c r="I17" s="46"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="35" t="s">
+        <v>69</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
       <c r="E18" s="46"/>
@@ -1905,11 +1983,13 @@
       <c r="I18" s="46"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="35"/>
+      <c r="B19" s="35" t="s">
+        <v>70</v>
+      </c>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="46"/>
@@ -1919,11 +1999,13 @@
       <c r="I19" s="46"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="35"/>
+      <c r="B20" s="35" t="s">
+        <v>71</v>
+      </c>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="46"/>
@@ -1933,11 +2015,13 @@
       <c r="I20" s="46"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="35"/>
+      <c r="B21" s="35" t="s">
+        <v>72</v>
+      </c>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
       <c r="E21" s="46"/>
@@ -1947,11 +2031,13 @@
       <c r="I21" s="46"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="35" t="s">
+        <v>73</v>
+      </c>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
       <c r="E22" s="46"/>
@@ -1961,7 +2047,7 @@
       <c r="I22" s="46"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
         <v>24</v>
       </c>
@@ -1975,7 +2061,7 @@
       <c r="I23" s="46"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
         <v>25</v>
       </c>
@@ -1989,7 +2075,7 @@
       <c r="I24" s="46"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:10" ht="16" thickBot="1">
+    <row r="25" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
         <v>28</v>
       </c>
@@ -2003,7 +2089,7 @@
       <c r="I25" s="47"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:10" ht="16" thickBot="1">
+    <row r="26" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="29" t="s">
         <v>30</v>
       </c>
@@ -2013,7 +2099,7 @@
       </c>
       <c r="D26" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E26" s="20">
         <f t="shared" si="0"/>
@@ -2029,7 +2115,7 @@
       </c>
       <c r="H26" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I26" s="49">
         <f t="shared" si="0"/>
@@ -2040,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="16" thickBot="1">
+    <row r="27" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="30" t="s">
         <v>29</v>
       </c>
@@ -2048,24 +2134,24 @@
         <f>C26</f>
         <v>4</v>
       </c>
-      <c r="D27" s="66">
+      <c r="D27" s="71">
         <f>SUM(D26:F26)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
+        <v>3.5</v>
+      </c>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="11">
         <f>G26</f>
         <v>4</v>
       </c>
-      <c r="H27" s="66">
+      <c r="H27" s="71">
         <f>SUM(H26:J26)</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="67"/>
-      <c r="J27" s="68"/>
-    </row>
-    <row r="28" spans="1:10">
+        <v>3.2</v>
+      </c>
+      <c r="I27" s="72"/>
+      <c r="J27" s="73"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
@@ -2075,8 +2161,8 @@
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="1:10">
-      <c r="B29" s="69" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="74" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="25" t="s">
@@ -2092,15 +2178,15 @@
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
     </row>
-    <row r="30" spans="1:10">
-      <c r="B30" s="70"/>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="75"/>
       <c r="C30" s="23">
         <f>C27+G27</f>
         <v>8</v>
       </c>
       <c r="D30" s="24">
         <f>D27+H27</f>
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
@@ -2109,7 +2195,7 @@
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
     </row>
-    <row r="31" spans="1:10" ht="16" thickBot="1">
+    <row r="31" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
       <c r="D31" s="17"/>
@@ -2120,7 +2206,7 @@
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
     </row>
-    <row r="32" spans="1:10" ht="22" customHeight="1">
+    <row r="32" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="41" t="s">
         <v>31</v>
       </c>
@@ -2136,49 +2222,49 @@
       <c r="I32" s="43"/>
       <c r="J32" s="44"/>
     </row>
-    <row r="33" spans="1:10" ht="60" customHeight="1">
-      <c r="A33" s="75"/>
+    <row r="33" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="55"/>
       <c r="B33" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="63"/>
-    </row>
-    <row r="34" spans="1:10" ht="60" customHeight="1">
-      <c r="A34" s="75"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="59"/>
+    </row>
+    <row r="34" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="55"/>
       <c r="B34" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="60"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="63"/>
-    </row>
-    <row r="35" spans="1:10" ht="60" customHeight="1" thickBot="1">
+      <c r="C34" s="56"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="59"/>
+    </row>
+    <row r="35" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="71"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="74"/>
-    </row>
-    <row r="36" spans="1:10" ht="20" customHeight="1" thickBot="1">
+      <c r="C35" s="51"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="54"/>
+    </row>
+    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="14"/>
       <c r="C36" s="12"/>
@@ -2190,7 +2276,7 @@
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
     </row>
-    <row r="37" spans="1:10" ht="22" customHeight="1">
+    <row r="37" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="41" t="s">
         <v>31</v>
       </c>
@@ -2206,56 +2292,50 @@
       <c r="I37" s="43"/>
       <c r="J37" s="44"/>
     </row>
-    <row r="38" spans="1:10" ht="60" customHeight="1">
-      <c r="A38" s="75"/>
+    <row r="38" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="55"/>
       <c r="B38" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="63"/>
-    </row>
-    <row r="39" spans="1:10" ht="60" customHeight="1">
-      <c r="A39" s="75"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="59"/>
+    </row>
+    <row r="39" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="55"/>
       <c r="B39" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="63"/>
-    </row>
-    <row r="40" spans="1:10" ht="60" customHeight="1" thickBot="1">
+      <c r="C39" s="56"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="59"/>
+    </row>
+    <row r="40" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="71"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="74"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="A1:J1"/>
@@ -2268,6 +2348,12 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
@@ -2287,61 +2373,61 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.1640625" customWidth="1"/>
-    <col min="3" max="8" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.125" customWidth="1"/>
+    <col min="3" max="8" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="32" customFormat="1" ht="47" customHeight="1" thickBot="1">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:8" s="32" customFormat="1" ht="47.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-    </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1" thickBot="1">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="55" t="s">
+      <c r="D2" s="65"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="58"/>
-    </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="20" customHeight="1">
-      <c r="A3" s="64" t="s">
+      <c r="G2" s="65"/>
+      <c r="H2" s="67"/>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="51" t="s">
+      <c r="D3" s="61"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="54"/>
-    </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="63"/>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
       <c r="C4" s="26" t="s">
         <v>16</v>
       </c>
@@ -2361,7 +2447,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>2</v>
       </c>
@@ -2383,7 +2469,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
         <v>3</v>
       </c>
@@ -2405,7 +2491,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>4</v>
       </c>
@@ -2431,7 +2517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
         <v>5</v>
       </c>
@@ -2449,7 +2535,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="30">
+    <row r="9" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>6</v>
       </c>
@@ -2475,7 +2561,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>7</v>
       </c>
@@ -2497,7 +2583,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>8</v>
       </c>
@@ -2519,7 +2605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30">
+    <row r="12" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>9</v>
       </c>
@@ -2541,7 +2627,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30">
+    <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>10</v>
       </c>
@@ -2555,7 +2641,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>11</v>
       </c>
@@ -2569,7 +2655,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>12</v>
       </c>
@@ -2581,7 +2667,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>13</v>
       </c>
@@ -2593,7 +2679,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>14</v>
       </c>
@@ -2605,7 +2691,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>15</v>
       </c>
@@ -2617,7 +2703,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>20</v>
       </c>
@@ -2629,7 +2715,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>21</v>
       </c>
@@ -2641,7 +2727,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>22</v>
       </c>
@@ -2653,7 +2739,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>23</v>
       </c>
@@ -2665,7 +2751,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
         <v>24</v>
       </c>
@@ -2677,7 +2763,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
         <v>25</v>
       </c>
@@ -2689,7 +2775,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" ht="16" thickBot="1">
+    <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
         <v>28</v>
       </c>
@@ -2701,7 +2787,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="16" thickBot="1">
+    <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="29" t="s">
         <v>30</v>
       </c>
@@ -2730,7 +2816,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16" thickBot="1">
+    <row r="27" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="30" t="s">
         <v>29</v>
       </c>
@@ -2738,22 +2824,22 @@
         <f>C26</f>
         <v>13</v>
       </c>
-      <c r="D27" s="66">
+      <c r="D27" s="71">
         <f>D26+E26</f>
         <v>17.5</v>
       </c>
-      <c r="E27" s="66"/>
+      <c r="E27" s="71"/>
       <c r="F27" s="11">
         <f>F26</f>
         <v>11</v>
       </c>
-      <c r="G27" s="66">
+      <c r="G27" s="71">
         <f>G26+H26</f>
         <v>17</v>
       </c>
-      <c r="H27" s="68"/>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="H27" s="73"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="17"/>
@@ -2761,8 +2847,8 @@
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
     </row>
-    <row r="29" spans="1:8">
-      <c r="B29" s="69" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="74" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="25" t="s">
@@ -2776,8 +2862,8 @@
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
     </row>
-    <row r="30" spans="1:8">
-      <c r="B30" s="70"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="75"/>
       <c r="C30" s="23">
         <f>C27+F27</f>
         <v>24</v>
@@ -2791,7 +2877,7 @@
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
     </row>
-    <row r="31" spans="1:8" ht="16" thickBot="1">
+    <row r="31" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
       <c r="D31" s="17"/>
@@ -2800,7 +2886,7 @@
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
     </row>
-    <row r="32" spans="1:8" ht="22" customHeight="1">
+    <row r="32" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="41" t="s">
         <v>31</v>
       </c>
@@ -2814,43 +2900,43 @@
       <c r="G32" s="43"/>
       <c r="H32" s="44"/>
     </row>
-    <row r="33" spans="1:8" ht="60" customHeight="1">
-      <c r="A33" s="75"/>
+    <row r="33" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="55"/>
       <c r="B33" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="63"/>
-    </row>
-    <row r="34" spans="1:8" ht="60" customHeight="1">
-      <c r="A34" s="75"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="59"/>
+    </row>
+    <row r="34" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="55"/>
       <c r="B34" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="60"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="63"/>
-    </row>
-    <row r="35" spans="1:8" ht="60" customHeight="1" thickBot="1">
+      <c r="C34" s="56"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="59"/>
+    </row>
+    <row r="35" spans="1:8" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="71"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="74"/>
-    </row>
-    <row r="36" spans="1:8" ht="20" customHeight="1" thickBot="1">
+      <c r="C35" s="51"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="54"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="14"/>
       <c r="C36" s="12"/>
@@ -2860,7 +2946,7 @@
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="22" customHeight="1">
+    <row r="37" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="41" t="s">
         <v>31</v>
       </c>
@@ -2874,55 +2960,44 @@
       <c r="G37" s="43"/>
       <c r="H37" s="44"/>
     </row>
-    <row r="38" spans="1:8" ht="60" customHeight="1">
-      <c r="A38" s="75"/>
+    <row r="38" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="55"/>
       <c r="B38" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="63"/>
-    </row>
-    <row r="39" spans="1:8" ht="60" customHeight="1">
-      <c r="A39" s="75"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="59"/>
+    </row>
+    <row r="39" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="55"/>
       <c r="B39" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="63"/>
-    </row>
-    <row r="40" spans="1:8" ht="60" customHeight="1" thickBot="1">
+      <c r="C39" s="56"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="59"/>
+    </row>
+    <row r="40" spans="1:8" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="71"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="74"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
@@ -2930,6 +3005,17 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C40:H40"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
